--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,61 +55,70 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>apart</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>thought</t>
+    <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>price</t>
   </si>
   <si>
     <t>better</t>
@@ -118,42 +127,33 @@
     <t>would</t>
   </si>
   <si>
-    <t>item</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>2</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>3</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>even</t>
   </si>
   <si>
@@ -163,19 +163,25 @@
     <t>like</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>toy</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>negative</t>
@@ -208,33 +214,36 @@
     <t>great</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
@@ -250,16 +259,16 @@
     <t>cute</t>
   </si>
   <si>
-    <t>playing</t>
+    <t>nice</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>positive</t>
@@ -620,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -707,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -760,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4">
         <v>0.8923076923076924</v>
@@ -789,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8169014084507042</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5">
         <v>0.8172043010752689</v>
@@ -839,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K6">
-        <v>0.765625</v>
+        <v>0.703125</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -881,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -889,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7365591397849462</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C7">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D7">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K7">
         <v>0.6792452830188679</v>
@@ -939,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7094594594594594</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C8">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K8">
         <v>0.6231884057971014</v>
@@ -989,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7090909090909091</v>
+        <v>0.7135922330097088</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="D9">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>0.610632183908046</v>
+        <v>0.6068866571018652</v>
       </c>
       <c r="L9">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M9">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1039,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6844660194174758</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C10">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1057,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10">
-        <v>0.578838174273859</v>
+        <v>0.5767634854771784</v>
       </c>
       <c r="L10">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M10">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1081,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1089,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6218487394957983</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C11">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1107,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K11">
-        <v>0.5450819672131147</v>
+        <v>0.5221311475409836</v>
       </c>
       <c r="L11">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="M11">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1131,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>555</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1139,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5855072463768116</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="C12">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1157,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K12">
-        <v>0.463855421686747</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L12">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M12">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1181,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1189,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5740740740740741</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1207,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K13">
-        <v>0.4617737003058104</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="L13">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="M13">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1231,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>176</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1239,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5180722891566265</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C14">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1257,31 +1266,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K14">
-        <v>0.4497354497354497</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="L14">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="M14">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1289,37 +1298,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4765625</v>
+        <v>0.5784883720930233</v>
       </c>
       <c r="C15">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="D15">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K15">
-        <v>0.4083333333333333</v>
+        <v>0.4281345565749236</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1331,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>71</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1339,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4645669291338583</v>
+        <v>0.5196850393700787</v>
       </c>
       <c r="C16">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1357,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K16">
-        <v>0.375</v>
+        <v>0.3203125</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1381,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1389,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4549763033175355</v>
+        <v>0.4765625</v>
       </c>
       <c r="C17">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1407,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K17">
-        <v>0.3253968253968254</v>
+        <v>0.2937062937062937</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1431,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1439,13 +1448,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3932584269662922</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1457,19 +1466,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K18">
-        <v>0.2937062937062937</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1481,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1489,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3894736842105263</v>
+        <v>0.4597156398104265</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1507,31 +1516,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K19">
-        <v>0.2730923694779117</v>
+        <v>0.2661290322580645</v>
       </c>
       <c r="L19">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>181</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1539,13 +1548,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3564356435643564</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="C20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1557,19 +1566,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K20">
-        <v>0.2688172043010753</v>
+        <v>0.2473118279569892</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1581,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1589,49 +1598,49 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3264248704663212</v>
+        <v>0.3910891089108911</v>
       </c>
       <c r="C21">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D21">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E21">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K21">
-        <v>0.2317180616740088</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L21">
-        <v>263</v>
+        <v>60</v>
       </c>
       <c r="M21">
-        <v>269</v>
+        <v>60</v>
       </c>
       <c r="N21">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>872</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1639,13 +1648,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2784810126582278</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C22">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1657,19 +1666,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K22">
-        <v>0.1815642458100559</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="L22">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="M22">
-        <v>66</v>
+        <v>261</v>
       </c>
       <c r="N22">
         <v>0.98</v>
@@ -1681,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>293</v>
+        <v>880</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1689,49 +1698,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2661870503597122</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K23">
-        <v>0.1635179153094463</v>
+        <v>0.1727019498607242</v>
       </c>
       <c r="L23">
-        <v>251</v>
+        <v>62</v>
       </c>
       <c r="M23">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1739,37 +1748,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.264957264957265</v>
+        <v>0.2797927461139896</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K24">
-        <v>0.1501340482573726</v>
+        <v>0.1635179153094463</v>
       </c>
       <c r="L24">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="M24">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="N24">
         <v>0.98</v>
@@ -1781,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>317</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1789,49 +1798,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2563291139240506</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C25">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D25">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K25">
-        <v>0.12109375</v>
+        <v>0.1283422459893048</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>225</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1839,13 +1848,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.255</v>
+        <v>0.25</v>
       </c>
       <c r="C26">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1857,31 +1866,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K26">
-        <v>0.1176470588235294</v>
+        <v>0.1185770750988142</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>285</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1889,13 +1898,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2523364485981308</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C27">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D27">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1907,31 +1916,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K27">
-        <v>0.08724832214765101</v>
+        <v>0.1038062283737024</v>
       </c>
       <c r="L27">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="N27">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="O27">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>680</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,49 +1948,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2473919523099851</v>
+        <v>0.2436708860759494</v>
       </c>
       <c r="C28">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="D28">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="E28">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>505</v>
+        <v>239</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K28">
-        <v>0.06807511737089202</v>
+        <v>0.09139784946236559</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="N28">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="O28">
-        <v>0.1899999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>397</v>
+        <v>676</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1989,49 +1998,49 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2427536231884058</v>
+        <v>0.2434782608695652</v>
       </c>
       <c r="C29">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D29">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K29">
-        <v>0.04310344827586207</v>
+        <v>0.07173601147776183</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="N29">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="O29">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>666</v>
+        <v>647</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2039,25 +2048,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2303664921465969</v>
+        <v>0.2347417840375587</v>
       </c>
       <c r="C30">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>147</v>
+        <v>163</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30">
+        <v>0.0625</v>
+      </c>
+      <c r="L30">
+        <v>35</v>
+      </c>
+      <c r="M30">
+        <v>40</v>
+      </c>
+      <c r="N30">
+        <v>0.88</v>
+      </c>
+      <c r="O30">
+        <v>0.12</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2065,25 +2098,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2228571428571429</v>
+        <v>0.2317979197622586</v>
       </c>
       <c r="C31">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>136</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2091,25 +2124,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2052023121387283</v>
+        <v>0.2</v>
       </c>
       <c r="C32">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D32">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E32">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>275</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2117,13 +2150,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2032967032967033</v>
+        <v>0.1995565410199557</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E33">
         <v>0.03</v>
@@ -2135,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>145</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2143,25 +2176,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1964679911699779</v>
+        <v>0.1947368421052632</v>
       </c>
       <c r="C34">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D34">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E34">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F34">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>364</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2169,25 +2202,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1910828025477707</v>
+        <v>0.1917293233082707</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>127</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2195,13 +2228,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1770833333333333</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="C36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2213,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2221,25 +2254,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1685082872928177</v>
+        <v>0.1755102040816326</v>
       </c>
       <c r="C37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D37">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E37">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F37">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>301</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2247,25 +2280,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1616541353383459</v>
+        <v>0.1518324607329843</v>
       </c>
       <c r="C38">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D38">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E38">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F38">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>223</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2273,25 +2306,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1481481481481481</v>
+        <v>0.1464788732394366</v>
       </c>
       <c r="C39">
         <v>52</v>
       </c>
       <c r="D39">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E39">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2299,25 +2332,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.139344262295082</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C40">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D40">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E40">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="F40">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>210</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2325,25 +2358,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1304347826086956</v>
+        <v>0.1371841155234657</v>
       </c>
       <c r="C41">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E41">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F41">
-        <v>0.9</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2351,25 +2384,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1196388261851016</v>
+        <v>0.1164383561643836</v>
       </c>
       <c r="C42">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E42">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="F42">
-        <v>0.9</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2377,25 +2410,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1118530884808013</v>
+        <v>0.1098169717138103</v>
       </c>
       <c r="C43">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E43">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F43">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2403,25 +2436,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1019108280254777</v>
+        <v>0.09196891191709844</v>
       </c>
       <c r="C44">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E44">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
       <c r="F44">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>282</v>
+        <v>701</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2429,25 +2462,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1012987012987013</v>
+        <v>0.0913312693498452</v>
       </c>
       <c r="C45">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D45">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="E45">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="F45">
-        <v>0.76</v>
+        <v>0.87</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>692</v>
+        <v>587</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2455,25 +2488,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.09004739336492891</v>
+        <v>0.08983451536643026</v>
       </c>
       <c r="C46">
         <v>38</v>
       </c>
       <c r="D46">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E46">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="F46">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2481,25 +2514,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07511737089201878</v>
+        <v>0.07819905213270142</v>
       </c>
       <c r="C47">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E47">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="F47">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2507,25 +2540,77 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.07465007776049767</v>
+        <v>0.06682027649769585</v>
       </c>
       <c r="C48">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D48">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E48">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="F48">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>595</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.06359649122807018</v>
+      </c>
+      <c r="C49">
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <v>42</v>
+      </c>
+      <c r="E49">
+        <v>0.31</v>
+      </c>
+      <c r="F49">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.06237424547283702</v>
+      </c>
+      <c r="C50">
+        <v>31</v>
+      </c>
+      <c r="D50">
+        <v>38</v>
+      </c>
+      <c r="E50">
+        <v>0.18</v>
+      </c>
+      <c r="F50">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
